--- a/Test-操作系统.xlsx
+++ b/Test-操作系统.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\PyCharm\workspace\exam-online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F53BBC-4D23-47D9-AB58-36C5E8DD3BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEA284-1B13-4A2C-A05B-B443D88E3B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
   </bookViews>
   <sheets>
     <sheet name="单项选择题" sheetId="1" r:id="rId1"/>
     <sheet name="多项选择题" sheetId="2" r:id="rId2"/>
     <sheet name="判断题" sheetId="3" r:id="rId3"/>
+    <sheet name="主观题" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +319,33 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请简述计算机的启动步骤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请简述Unix类系统中系统调用的几个过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是多项选择题4</t>
+  </si>
+  <si>
+    <t>BCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动步骤标准答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调用标准答案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A2D115-BB32-49B2-A3DD-40659F06ED1A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -751,7 +779,7 @@
         <v>71</v>
       </c>
       <c r="G2" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -774,7 +802,7 @@
         <v>71</v>
       </c>
       <c r="G3" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,7 +825,7 @@
         <v>71</v>
       </c>
       <c r="G4" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,7 +848,7 @@
         <v>71</v>
       </c>
       <c r="G5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,7 +871,7 @@
         <v>71</v>
       </c>
       <c r="G6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,7 +894,7 @@
         <v>71</v>
       </c>
       <c r="G7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -889,7 +917,7 @@
         <v>71</v>
       </c>
       <c r="G8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,7 +940,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,7 +963,7 @@
         <v>71</v>
       </c>
       <c r="G10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -958,7 +986,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33980D2-EB03-4EE7-AA6F-517DCD352F29}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1061,7 +1089,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,7 +1112,30 @@
         <v>7</v>
       </c>
       <c r="G4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1150,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1178,4 +1229,60 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE1B417-D2C5-4AC5-841D-6EEEB28A6F7F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test-操作系统.xlsx
+++ b/Test-操作系统.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\PyCharm\workspace\exam-online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEA284-1B13-4A2C-A05B-B443D88E3B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9643B71-DA14-46B3-9127-7124720B2D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,10 +334,6 @@
   </si>
   <si>
     <t>BCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1236,7 +1232,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1252,32 +1248,32 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
